--- a/raw_data/20200818_saline/20200818_Sensor0_Test_12.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_12.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55502B2F-9E05-4BED-BE39-E834304B4AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>9902.850840</v>
+        <v>9902.8508399999992</v>
       </c>
       <c r="B2" s="1">
-        <v>2.750792</v>
+        <v>2.7507920000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.352000</v>
+        <v>902.35199999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.169000</v>
+        <v>-194.16900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>9913.227117</v>
+        <v>9913.2271170000004</v>
       </c>
       <c r="G2" s="1">
-        <v>2.753674</v>
+        <v>2.7536740000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>919.478000</v>
+        <v>919.47799999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.523000</v>
+        <v>-164.523</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>9923.358398</v>
+        <v>9923.3583980000003</v>
       </c>
       <c r="L2" s="1">
         <v>2.756488</v>
       </c>
       <c r="M2" s="1">
-        <v>941.461000</v>
+        <v>941.46100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.387000</v>
+        <v>-118.387</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>9933.445538</v>
+        <v>9933.4455379999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.759290</v>
+        <v>2.75929</v>
       </c>
       <c r="R2" s="1">
-        <v>948.079000</v>
+        <v>948.07899999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.635000</v>
+        <v>-103.63500000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>9943.708292</v>
+        <v>9943.7082919999993</v>
       </c>
       <c r="V2" s="1">
-        <v>2.762141</v>
+        <v>2.7621410000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>954.653000</v>
+        <v>954.65300000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.928800</v>
+        <v>-89.928799999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>9954.122293</v>
+        <v>9954.1222930000004</v>
       </c>
       <c r="AA2" s="1">
         <v>2.765034</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.904000</v>
+        <v>961.904</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.298700</v>
+        <v>-80.298699999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>9964.381047</v>
+        <v>9964.3810470000008</v>
       </c>
       <c r="AF2" s="1">
         <v>2.767884</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.888000</v>
+        <v>966.88800000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.991000</v>
+        <v>-79.991</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>9974.866938</v>
+        <v>9974.8669379999992</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.770796</v>
+        <v>2.7707959999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.894000</v>
+        <v>974.89400000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.743400</v>
+        <v>-87.743399999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>9985.425317</v>
+        <v>9985.4253169999993</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.773729</v>
+        <v>2.7737289999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.114000</v>
+        <v>984.11400000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.743000</v>
+        <v>-102.74299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>9996.430014</v>
+        <v>9996.4300139999996</v>
       </c>
       <c r="AU2" s="1">
         <v>2.776786</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.544000</v>
+        <v>995.54399999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.319000</v>
+        <v>-124.319</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>10007.612318</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.779892</v>
+        <v>2.7798919999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.200000</v>
+        <v>1005.2</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.060000</v>
+        <v>-143.06</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>10018.489121</v>
+        <v>10018.489121000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.782914</v>
+        <v>2.7829139999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.450000</v>
+        <v>1050.45</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.902000</v>
+        <v>-227.90199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>10029.509714</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.785975</v>
+        <v>2.7859750000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.660000</v>
+        <v>1129.6600000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.193000</v>
+        <v>-364.19299999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>10040.308596</v>
+        <v>10040.308596000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.788975</v>
+        <v>2.7889750000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.384000</v>
+        <v>-575.38400000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>10050.644726</v>
@@ -691,270 +1107,270 @@
         <v>2.791846</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.280000</v>
+        <v>1408.28</v>
       </c>
       <c r="BV2" s="1">
-        <v>-801.619000</v>
+        <v>-801.61900000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>10061.759610</v>
+        <v>10061.759609999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.794933</v>
+        <v>2.7949329999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.250000</v>
+        <v>1571.25</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1037.250000</v>
+        <v>-1037.25</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>10073.425480</v>
+        <v>10073.42548</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.798174</v>
+        <v>2.7981739999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1984.270000</v>
+        <v>1984.27</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1586.670000</v>
+        <v>-1586.67</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>9903.220329</v>
+        <v>9903.2203289999998</v>
       </c>
       <c r="B3" s="1">
-        <v>2.750895</v>
+        <v>2.7508949999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.516000</v>
+        <v>902.51599999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.141000</v>
+        <v>-194.14099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>9913.599610</v>
+        <v>9913.5996099999993</v>
       </c>
       <c r="G3" s="1">
-        <v>2.753778</v>
+        <v>2.7537780000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.717000</v>
+        <v>919.71699999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.677000</v>
+        <v>-164.67699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>9923.699645</v>
+        <v>9923.6996450000006</v>
       </c>
       <c r="L3" s="1">
         <v>2.756583</v>
       </c>
       <c r="M3" s="1">
-        <v>941.249000</v>
+        <v>941.24900000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.524000</v>
+        <v>-118.524</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>9933.858209</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.759405</v>
+        <v>2.7594050000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>948.065000</v>
+        <v>948.06500000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.626000</v>
+        <v>-103.626</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>9944.128406</v>
+        <v>9944.1284059999998</v>
       </c>
       <c r="V3" s="1">
-        <v>2.762258</v>
+        <v>2.7622580000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>954.704000</v>
+        <v>954.70399999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.928600</v>
+        <v>-89.928600000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>9954.226951</v>
+        <v>9954.2269510000006</v>
       </c>
       <c r="AA3" s="1">
         <v>2.765063</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.877000</v>
+        <v>961.87699999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.291200</v>
+        <v>-80.291200000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>9964.816535</v>
+        <v>9964.8165349999999</v>
       </c>
       <c r="AF3" s="1">
         <v>2.768005</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.913000</v>
+        <v>966.91300000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.962300</v>
+        <v>-79.962299999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>9975.233017</v>
+        <v>9975.2330170000005</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.770898</v>
+        <v>2.7708979999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.891000</v>
+        <v>974.89099999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.748200</v>
+        <v>-87.748199999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>9985.825579</v>
+        <v>9985.8255790000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.773840</v>
+        <v>2.7738399999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.120000</v>
+        <v>984.12</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.722000</v>
+        <v>-102.72199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>9996.848636</v>
+        <v>9996.8486360000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.776902</v>
+        <v>2.7769020000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.537000</v>
+        <v>995.53700000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.300000</v>
+        <v>-124.3</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>10008.023538</v>
+        <v>10008.023537999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.780007</v>
+        <v>2.7800069999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.047000</v>
+        <v>-143.047</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>10018.890876</v>
+        <v>10018.890875999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.783025</v>
+        <v>2.7830249999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.450000</v>
+        <v>1050.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.914000</v>
+        <v>-227.91399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>10029.883723</v>
+        <v>10029.883723000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>2.786079</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.220000</v>
+        <v>-364.22</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>10040.727716</v>
+        <v>10040.727715999999</v>
       </c>
       <c r="BO3" s="1">
         <v>2.789091</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.450000</v>
+        <v>-575.45000000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>10051.083722</v>
+        <v>10051.083721999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.791968</v>
+        <v>2.7919679999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.230000</v>
+        <v>1408.23</v>
       </c>
       <c r="BV3" s="1">
-        <v>-801.617000</v>
+        <v>-801.61699999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>10062.549702</v>
@@ -963,512 +1379,512 @@
         <v>2.795153</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.320000</v>
+        <v>1571.32</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1037.300000</v>
+        <v>-1037.3</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>10073.758793</v>
+        <v>10073.758793000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.798266</v>
+        <v>2.7982659999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1984.320000</v>
+        <v>1984.32</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1586.490000</v>
+        <v>-1586.49</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>9903.562568</v>
+        <v>9903.5625679999994</v>
       </c>
       <c r="B4" s="1">
-        <v>2.750990</v>
+        <v>2.7509899999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>902.291000</v>
+        <v>902.29100000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.139000</v>
+        <v>-194.13900000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>9914.013274</v>
+        <v>9914.0132740000008</v>
       </c>
       <c r="G4" s="1">
-        <v>2.753893</v>
+        <v>2.7538930000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>919.235000</v>
+        <v>919.23500000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.172000</v>
+        <v>-165.172</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>9924.112318</v>
+        <v>9924.1123179999995</v>
       </c>
       <c r="L4" s="1">
-        <v>2.756698</v>
+        <v>2.7566980000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>941.407000</v>
+        <v>941.40700000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.529000</v>
+        <v>-118.529</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>9934.205407</v>
+        <v>9934.2054069999995</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.759502</v>
+        <v>2.7595019999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.053000</v>
+        <v>948.053</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.621000</v>
+        <v>-103.621</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>9944.436386</v>
+        <v>9944.4363859999994</v>
       </c>
       <c r="V4" s="1">
         <v>2.762343</v>
       </c>
       <c r="W4" s="1">
-        <v>954.645000</v>
+        <v>954.64499999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.918900</v>
+        <v>-89.918899999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>9954.574144</v>
+        <v>9954.5741440000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.765159</v>
+        <v>2.7651590000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.787000</v>
+        <v>961.78700000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.307600</v>
+        <v>-80.307599999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>9965.152822</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.768098</v>
+        <v>2.7680980000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.880000</v>
+        <v>966.88</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.936800</v>
+        <v>-79.936800000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>9975.584185</v>
+        <v>9975.5841849999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.770996</v>
+        <v>2.7709959999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.905000</v>
+        <v>974.90499999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.730500</v>
+        <v>-87.730500000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>9986.546730</v>
+        <v>9986.54673</v>
       </c>
       <c r="AP4" s="1">
         <v>2.774041</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.121000</v>
+        <v>984.12099999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.718000</v>
+        <v>-102.718</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>9997.578251</v>
+        <v>9997.5782510000008</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.777105</v>
+        <v>2.7771050000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.548000</v>
+        <v>995.548</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.303000</v>
+        <v>-124.303</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>10008.366735</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.780102</v>
+        <v>2.7801019999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.088000</v>
+        <v>-143.08799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>10019.252431</v>
+        <v>10019.252431000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.783126</v>
+        <v>2.7831260000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.470000</v>
+        <v>1050.47</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.891000</v>
+        <v>-227.89099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>10030.287426</v>
+        <v>10030.287426000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.786191</v>
+        <v>2.7861910000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.650000</v>
+        <v>1129.6500000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.222000</v>
+        <v>-364.22199999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>10041.456617</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.789294</v>
+        <v>2.7892939999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.432000</v>
+        <v>-575.43200000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>10051.800437</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.792167</v>
+        <v>2.7921670000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.190000</v>
+        <v>1408.19</v>
       </c>
       <c r="BV4" s="1">
-        <v>-801.280000</v>
+        <v>-801.28</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>10062.690070</v>
+        <v>10062.690070000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.795192</v>
+        <v>2.7951920000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.300000</v>
+        <v>1571.3</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1037.340000</v>
+        <v>-1037.3399999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>10074.276119</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.798410</v>
+        <v>2.7984100000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1982.610000</v>
+        <v>1982.61</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1586.800000</v>
+        <v>-1586.8</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>9903.976265</v>
+        <v>9903.9762649999993</v>
       </c>
       <c r="B5" s="1">
-        <v>2.751105</v>
+        <v>2.7511049999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>902.299000</v>
+        <v>902.29899999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.062000</v>
+        <v>-194.06200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>9914.309385</v>
+        <v>9914.3093850000005</v>
       </c>
       <c r="G5" s="1">
-        <v>2.753975</v>
+        <v>2.7539750000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.801000</v>
+        <v>919.80100000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.638000</v>
+        <v>-164.63800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>9924.390078</v>
+        <v>9924.3900780000004</v>
       </c>
       <c r="L5" s="1">
-        <v>2.756775</v>
+        <v>2.7567750000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>941.345000</v>
+        <v>941.34500000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.616000</v>
+        <v>-118.616</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>9934.554095</v>
+        <v>9934.5540949999995</v>
       </c>
       <c r="Q5" s="1">
         <v>2.759598</v>
       </c>
       <c r="R5" s="1">
-        <v>948.062000</v>
+        <v>948.06200000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.630000</v>
+        <v>-103.63</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>9944.781926</v>
+        <v>9944.7819259999997</v>
       </c>
       <c r="V5" s="1">
-        <v>2.762439</v>
+        <v>2.7624390000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>954.720000</v>
+        <v>954.72</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.904300</v>
+        <v>-89.904300000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>9954.923332</v>
+        <v>9954.9233320000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.765256</v>
+        <v>2.7652559999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.854000</v>
+        <v>961.85400000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.432000</v>
+        <v>-80.432000000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>9965.841269</v>
+        <v>9965.8412690000005</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.768289</v>
+        <v>2.7682890000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.886000</v>
+        <v>966.88599999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.901500</v>
+        <v>-79.901499999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9976.279157</v>
+        <v>9976.2791570000009</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.771189</v>
+        <v>2.7711890000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.895000</v>
+        <v>974.89499999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.777000</v>
+        <v>-87.777000000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>9986.908842</v>
+        <v>9986.9088420000007</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.774141</v>
+        <v>2.7741410000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.131000</v>
+        <v>984.13099999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.726000</v>
+        <v>-102.726</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>9997.943307</v>
+        <v>9997.9433069999995</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.777206</v>
+        <v>2.7772060000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.561000</v>
+        <v>995.56100000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.323000</v>
+        <v>-124.32299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>10008.726861</v>
+        <v>10008.726860999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.780202</v>
+        <v>2.7802020000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.150000</v>
+        <v>1005.15</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.040000</v>
+        <v>-143.04</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>10019.911614</v>
+        <v>10019.911614000001</v>
       </c>
       <c r="BE5" s="1">
         <v>2.783309</v>
       </c>
       <c r="BF5" s="1">
-        <v>1050.470000</v>
+        <v>1050.47</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.925000</v>
+        <v>-227.92500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>10030.958511</v>
+        <v>10030.958511000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.786377</v>
+        <v>2.7863769999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.640000</v>
+        <v>1129.6400000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.219000</v>
+        <v>-364.21899999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>10041.569426</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.789325</v>
+        <v>2.7893249999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.417000</v>
+        <v>-575.41700000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>10052.358440</v>
+        <v>10052.35844</v>
       </c>
       <c r="BT5" s="1">
         <v>2.792322</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.350000</v>
+        <v>1408.35</v>
       </c>
       <c r="BV5" s="1">
-        <v>-801.129000</v>
+        <v>-801.12900000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>10063.111669</v>
@@ -1477,255 +1893,255 @@
         <v>2.795309</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.280000</v>
+        <v>1571.28</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1037.220000</v>
+        <v>-1037.22</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>10074.795926</v>
+        <v>10074.795926000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.798554</v>
+        <v>2.7985540000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1983.730000</v>
+        <v>1983.73</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1588.340000</v>
+        <v>-1588.34</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>9904.253000</v>
+        <v>9904.2530000000006</v>
       </c>
       <c r="B6" s="1">
-        <v>2.751181</v>
+        <v>2.7511809999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>902.409000</v>
+        <v>902.40899999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.309000</v>
+        <v>-194.309</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>9914.655097</v>
+        <v>9914.6550970000008</v>
       </c>
       <c r="G6" s="1">
-        <v>2.754071</v>
+        <v>2.7540710000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>919.294000</v>
+        <v>919.29399999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.752000</v>
+        <v>-164.75200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>9924.737276</v>
+        <v>9924.7372759999998</v>
       </c>
       <c r="L6" s="1">
-        <v>2.756871</v>
+        <v>2.7568709999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>941.183000</v>
+        <v>941.18299999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.607000</v>
+        <v>-118.607</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>9934.903317</v>
+        <v>9934.9033170000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.759695</v>
+        <v>2.7596949999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>948.077000</v>
+        <v>948.077</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.631000</v>
+        <v>-103.631</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>9945.122849</v>
+        <v>9945.1228489999994</v>
       </c>
       <c r="V6" s="1">
         <v>2.762534</v>
       </c>
       <c r="W6" s="1">
-        <v>954.755000</v>
+        <v>954.755</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.986800</v>
+        <v>-89.986800000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>9955.621667</v>
+        <v>9955.6216669999994</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.765450</v>
+        <v>2.76545</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.982000</v>
+        <v>961.98199999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.461900</v>
+        <v>-80.4619</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>9966.185957</v>
+        <v>9966.1859569999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.768385</v>
+        <v>2.7683849999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.921000</v>
+        <v>966.92100000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.902300</v>
+        <v>-79.902299999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9976.629054</v>
+        <v>9976.6290540000009</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.771286</v>
+        <v>2.7712859999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.880000</v>
+        <v>974.88</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.759200</v>
+        <v>-87.759200000000007</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>9987.267418</v>
+        <v>9987.2674179999995</v>
       </c>
       <c r="AP6" s="1">
         <v>2.774241</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.131000</v>
+        <v>984.13099999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.747000</v>
+        <v>-102.747</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>9998.308859</v>
+        <v>9998.3088590000007</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.777308</v>
+        <v>2.7773080000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.540000</v>
+        <v>995.54</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.307000</v>
+        <v>-124.307</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>10009.383073</v>
+        <v>10009.383073000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.780384</v>
+        <v>2.7803840000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.058000</v>
+        <v>-143.05799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>10020.368463</v>
+        <v>10020.368463000001</v>
       </c>
       <c r="BE6" s="1">
         <v>2.783436</v>
       </c>
       <c r="BF6" s="1">
-        <v>1050.450000</v>
+        <v>1050.45</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.909000</v>
+        <v>-227.90899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>10031.444592</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.786512</v>
+        <v>2.7865120000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.640000</v>
+        <v>1129.6400000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.215000</v>
+        <v>-364.21499999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>10041.969201</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.789436</v>
+        <v>2.7894359999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.448000</v>
+        <v>-575.44799999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>10052.792900</v>
+        <v>10052.7929</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.792442</v>
+        <v>2.7924419999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.520000</v>
+        <v>1408.52</v>
       </c>
       <c r="BV6" s="1">
-        <v>-801.156000</v>
+        <v>-801.15599999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>10063.535285</v>
@@ -1734,240 +2150,240 @@
         <v>2.795426</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.260000</v>
+        <v>1571.26</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1037.230000</v>
+        <v>-1037.23</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>10075.335573</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.798704</v>
+        <v>2.7987039999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1983.780000</v>
+        <v>1983.78</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1586.460000</v>
+        <v>-1586.46</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>9904.593750</v>
+        <v>9904.59375</v>
       </c>
       <c r="B7" s="1">
-        <v>2.751276</v>
+        <v>2.7512759999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>902.444000</v>
+        <v>902.44399999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.242000</v>
+        <v>-194.24199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>9914.999816</v>
+        <v>9914.9998159999996</v>
       </c>
       <c r="G7" s="1">
-        <v>2.754167</v>
+        <v>2.7541669999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>919.178000</v>
+        <v>919.178</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.028000</v>
+        <v>-165.02799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>9925.081500</v>
+        <v>9925.0815000000002</v>
       </c>
       <c r="L7" s="1">
-        <v>2.756967</v>
+        <v>2.7569669999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>941.536000</v>
+        <v>941.53599999999994</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.476000</v>
+        <v>-118.476</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>9935.601646</v>
+        <v>9935.6016459999992</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.759889</v>
+        <v>2.7598889999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>948.080000</v>
+        <v>948.08</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.633000</v>
+        <v>-103.633</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>9945.808850</v>
+        <v>9945.8088499999994</v>
       </c>
       <c r="V7" s="1">
-        <v>2.762725</v>
+        <v>2.7627250000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.716000</v>
+        <v>954.71600000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.948500</v>
+        <v>-89.948499999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>9955.971842</v>
+        <v>9955.9718420000008</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.765548</v>
+        <v>2.7655479999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.923000</v>
+        <v>961.923</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.428900</v>
+        <v>-80.428899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>9966.529188</v>
+        <v>9966.5291880000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.768480</v>
+        <v>2.7684799999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.878000</v>
+        <v>966.87800000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.895500</v>
+        <v>-79.895499999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>9976.975960</v>
+        <v>9976.9759599999998</v>
       </c>
       <c r="AK7" s="1">
         <v>2.771382</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.902000</v>
+        <v>974.90200000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.738000</v>
+        <v>-87.738</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>9987.933049</v>
+        <v>9987.9330489999993</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.774426</v>
+        <v>2.7744260000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.128000</v>
+        <v>984.12800000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.728000</v>
+        <v>-102.72799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>9998.981962</v>
+        <v>9998.9819619999998</v>
       </c>
       <c r="AU7" s="1">
         <v>2.777495</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.537000</v>
+        <v>995.53700000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.317000</v>
+        <v>-124.31699999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>10009.830925</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.780509</v>
+        <v>2.7805089999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.190000</v>
+        <v>1005.19</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.050000</v>
+        <v>-143.05000000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>10020.731006</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.783536</v>
+        <v>2.7835359999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.470000</v>
+        <v>1050.47</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.879000</v>
+        <v>-227.87899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>10031.822046</v>
+        <v>10031.822045999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.786617</v>
+        <v>2.7866170000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.650000</v>
+        <v>1129.6500000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.242000</v>
+        <v>-364.24200000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>10042.367489</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.789547</v>
+        <v>2.7895470000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.469000</v>
+        <v>-575.46900000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>10053.204597</v>
@@ -1976,210 +2392,210 @@
         <v>2.792557</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.740000</v>
+        <v>1408.74</v>
       </c>
       <c r="BV7" s="1">
-        <v>-801.103000</v>
+        <v>-801.10299999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>10063.988596</v>
+        <v>10063.988595999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.795552</v>
+        <v>2.7955519999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.280000</v>
+        <v>1571.28</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1037.270000</v>
+        <v>-1037.27</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>10075.874261</v>
+        <v>10075.874261000001</v>
       </c>
       <c r="CD7" s="1">
         <v>2.798854</v>
       </c>
       <c r="CE7" s="1">
-        <v>1982.280000</v>
+        <v>1982.28</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1587.960000</v>
+        <v>-1587.96</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>9904.937478</v>
+        <v>9904.9374779999998</v>
       </c>
       <c r="B8" s="1">
-        <v>2.751372</v>
+        <v>2.7513719999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.356000</v>
+        <v>902.35599999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.082000</v>
+        <v>-194.08199999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>9915.688301</v>
+        <v>9915.6883010000001</v>
       </c>
       <c r="G8" s="1">
-        <v>2.754358</v>
+        <v>2.7543579999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>919.303000</v>
+        <v>919.303</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.758000</v>
+        <v>-164.75800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>9925.773946</v>
+        <v>9925.7739459999993</v>
       </c>
       <c r="L8" s="1">
-        <v>2.757159</v>
+        <v>2.7571590000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>941.344000</v>
+        <v>941.34400000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.742000</v>
+        <v>-118.742</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>9935.949450</v>
+        <v>9935.9494500000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.759986</v>
+        <v>2.7599860000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>948.032000</v>
+        <v>948.03200000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.647000</v>
+        <v>-103.64700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>9946.154528</v>
+        <v>9946.1545279999991</v>
       </c>
       <c r="V8" s="1">
-        <v>2.762821</v>
+        <v>2.7628210000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>954.738000</v>
+        <v>954.73800000000006</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.799200</v>
+        <v>-89.799199999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>9956.318050</v>
+        <v>9956.3180499999999</v>
       </c>
       <c r="AA8" s="1">
         <v>2.765644</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.022000</v>
+        <v>962.02200000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.395500</v>
+        <v>-80.395499999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>9967.176500</v>
+        <v>9967.1764999999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.768660</v>
+        <v>2.7686600000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.924000</v>
+        <v>966.92399999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.893500</v>
+        <v>-79.893500000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>9977.622711</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.771562</v>
+        <v>2.7715619999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.888000</v>
+        <v>974.88800000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.738000</v>
+        <v>-87.738</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>9988.381433</v>
+        <v>9988.3814330000005</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.774550</v>
+        <v>2.7745500000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.107000</v>
+        <v>984.10699999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.743000</v>
+        <v>-102.74299999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>9999.404062</v>
+        <v>9999.4040619999996</v>
       </c>
       <c r="AU8" s="1">
         <v>2.777612</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.545000</v>
+        <v>995.54499999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.301000</v>
+        <v>-124.301</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>10010.191019</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.780609</v>
+        <v>2.7806090000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.037000</v>
+        <v>-143.03700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>10021.089612</v>
@@ -2188,73 +2604,73 @@
         <v>2.783636</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.440000</v>
+        <v>1050.44</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.888000</v>
+        <v>-227.88800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>10032.204959</v>
+        <v>10032.204959000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>2.786724</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.640000</v>
+        <v>1129.6400000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.221000</v>
+        <v>-364.221</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>10042.789088</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.789664</v>
+        <v>2.7896640000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.517000</v>
+        <v>-575.51700000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>10053.622222</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.792673</v>
+        <v>2.7926730000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.900000</v>
+        <v>1408.9</v>
       </c>
       <c r="BV8" s="1">
-        <v>-801.097000</v>
+        <v>-801.09699999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>10064.436988</v>
+        <v>10064.436987999999</v>
       </c>
       <c r="BY8" s="1">
         <v>2.795677</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.300000</v>
+        <v>1571.3</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1037.310000</v>
+        <v>-1037.31</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>10076.413875</v>
@@ -2263,135 +2679,135 @@
         <v>2.799004</v>
       </c>
       <c r="CE8" s="1">
-        <v>1984.810000</v>
+        <v>1984.81</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1587.310000</v>
+        <v>-1587.31</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>9905.617991</v>
+        <v>9905.6179909999992</v>
       </c>
       <c r="B9" s="1">
-        <v>2.751561</v>
+        <v>2.7515610000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>902.182000</v>
+        <v>902.18200000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.243000</v>
+        <v>-194.24299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>9916.034476</v>
+        <v>9916.0344760000007</v>
       </c>
       <c r="G9" s="1">
         <v>2.754454</v>
       </c>
       <c r="H9" s="1">
-        <v>919.372000</v>
+        <v>919.37199999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.778000</v>
+        <v>-164.77799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>9926.117643</v>
+        <v>9926.1176429999996</v>
       </c>
       <c r="L9" s="1">
-        <v>2.757255</v>
+        <v>2.7572549999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>941.490000</v>
+        <v>941.49</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.466000</v>
+        <v>-118.46599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>9936.298028</v>
+        <v>9936.2980279999992</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.760083</v>
+        <v>2.7600829999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>948.032000</v>
+        <v>948.03200000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.604000</v>
+        <v>-103.604</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>9946.500239</v>
+        <v>9946.5002390000009</v>
       </c>
       <c r="V9" s="1">
-        <v>2.762917</v>
+        <v>2.7629169999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>954.777000</v>
+        <v>954.77700000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.782200</v>
+        <v>-89.782200000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>9956.967809</v>
+        <v>9956.9678089999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.765824</v>
+        <v>2.7658239999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.969000</v>
+        <v>961.96900000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.434200</v>
+        <v>-80.434200000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>9967.561364</v>
+        <v>9967.5613639999992</v>
       </c>
       <c r="AF9" s="1">
         <v>2.768767</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.923000</v>
+        <v>966.923</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.867000</v>
+        <v>-79.867000000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9978.022514</v>
+        <v>9978.0225140000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.771673</v>
+        <v>2.7716729999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.927000</v>
+        <v>974.92700000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.752700</v>
+        <v>-87.752700000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>9988.743015</v>
@@ -2400,285 +2816,285 @@
         <v>2.774651</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.135000</v>
+        <v>984.13499999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.752000</v>
+        <v>-102.752</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>9999.765144</v>
+        <v>9999.7651440000009</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.777713</v>
+        <v>2.7777129999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.539000</v>
+        <v>995.53899999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.302000</v>
+        <v>-124.30200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>10010.548635</v>
+        <v>10010.548634999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.780708</v>
+        <v>2.7807080000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.190000</v>
+        <v>1005.19</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.044000</v>
+        <v>-143.04400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>10021.496828</v>
+        <v>10021.496827999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.783749</v>
+        <v>2.7837489999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1050.440000</v>
+        <v>1050.44</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.908000</v>
+        <v>-227.90799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>10032.637966</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.786844</v>
+        <v>2.7868439999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.222000</v>
+        <v>-364.22199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>10043.186911</v>
+        <v>10043.186911000001</v>
       </c>
       <c r="BO9" s="1">
         <v>2.789774</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.454000</v>
+        <v>-575.45399999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>10054.039345</v>
+        <v>10054.039344999999</v>
       </c>
       <c r="BT9" s="1">
         <v>2.792789</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.890000</v>
+        <v>1408.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-801.314000</v>
+        <v>-801.31399999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>10064.867013</v>
+        <v>10064.867012999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.795796</v>
+        <v>2.7957960000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.270000</v>
+        <v>1571.27</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1037.320000</v>
+        <v>-1037.32</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>10076.953523</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.799154</v>
+        <v>2.7991540000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1983.100000</v>
+        <v>1983.1</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1587.060000</v>
+        <v>-1587.06</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>9905.961717</v>
+        <v>9905.9617170000001</v>
       </c>
       <c r="B10" s="1">
-        <v>2.751656</v>
+        <v>2.7516560000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>902.442000</v>
+        <v>902.44200000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.198000</v>
+        <v>-194.19800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>9916.375719</v>
+        <v>9916.3757189999997</v>
       </c>
       <c r="G10" s="1">
-        <v>2.754549</v>
+        <v>2.7545489999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>918.954000</v>
+        <v>918.95399999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.597000</v>
+        <v>-164.59700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>9926.460874</v>
+        <v>9926.4608740000003</v>
       </c>
       <c r="L10" s="1">
-        <v>2.757350</v>
+        <v>2.7573500000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>941.249000</v>
+        <v>941.24900000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.649000</v>
+        <v>-118.649</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>9936.956254</v>
+        <v>9936.9562540000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.760266</v>
+        <v>2.7602660000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.070000</v>
+        <v>948.07</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.609000</v>
+        <v>-103.60899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>9947.149502</v>
+        <v>9947.1495020000002</v>
       </c>
       <c r="V10" s="1">
-        <v>2.763097</v>
+        <v>2.7630970000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.757000</v>
+        <v>954.75699999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.738600</v>
+        <v>-89.738600000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>9957.363121</v>
+        <v>9957.3631210000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.765934</v>
+        <v>2.7659340000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.856000</v>
+        <v>961.85599999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.542500</v>
+        <v>-80.542500000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>9967.904099</v>
+        <v>9967.9040989999994</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.768862</v>
+        <v>2.7688619999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.936000</v>
+        <v>966.93600000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.929900</v>
+        <v>-79.929900000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>9978.371670</v>
+        <v>9978.3716700000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.771770</v>
+        <v>2.7717700000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.901000</v>
+        <v>974.90099999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.737800</v>
+        <v>-87.737799999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>9989.101128</v>
+        <v>9989.1011280000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.774750</v>
+        <v>2.77475</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.128000</v>
+        <v>984.12800000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.757000</v>
+        <v>-102.75700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>10000.392588</v>
+        <v>10000.392588000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.777887</v>
+        <v>2.7778870000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.545000</v>
+        <v>995.54499999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.326000</v>
+        <v>-124.32599999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>10010.956875</v>
@@ -2687,270 +3103,270 @@
         <v>2.780821</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.072000</v>
+        <v>-143.072</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>10021.813275</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.783837</v>
+        <v>2.7838370000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.450000</v>
+        <v>1050.45</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.887000</v>
+        <v>-227.887</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>10032.970819</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.786936</v>
+        <v>2.7869359999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.246000</v>
+        <v>-364.24599999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>10043.603518</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.789890</v>
+        <v>2.7898900000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.444000</v>
+        <v>-575.44399999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>10054.453009</v>
+        <v>10054.453009000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.792904</v>
+        <v>2.7929040000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.930000</v>
+        <v>1408.93</v>
       </c>
       <c r="BV10" s="1">
-        <v>-801.515000</v>
+        <v>-801.51499999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>10065.289602</v>
+        <v>10065.289602000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.795914</v>
+        <v>2.7959139999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.310000</v>
+        <v>1571.31</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1037.250000</v>
+        <v>-1037.25</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>10077.491720</v>
+        <v>10077.49172</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.799303</v>
+        <v>2.7993030000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1983.550000</v>
+        <v>1983.55</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1588.580000</v>
+        <v>-1588.58</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>9906.304981</v>
+        <v>9906.3049809999993</v>
       </c>
       <c r="B11" s="1">
-        <v>2.751751</v>
+        <v>2.7517510000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>902.246000</v>
+        <v>902.24599999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.167000</v>
+        <v>-194.167</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>9917.019527</v>
+        <v>9917.0195270000004</v>
       </c>
       <c r="G11" s="1">
-        <v>2.754728</v>
+        <v>2.7547280000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.292000</v>
+        <v>919.29200000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.623000</v>
+        <v>-164.62299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>9927.107688</v>
+        <v>9927.1076880000001</v>
       </c>
       <c r="L11" s="1">
-        <v>2.757530</v>
+        <v>2.75753</v>
       </c>
       <c r="M11" s="1">
-        <v>941.410000</v>
+        <v>941.41</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.570000</v>
+        <v>-118.57</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>9937.344091</v>
+        <v>9937.3440910000008</v>
       </c>
       <c r="Q11" s="1">
         <v>2.760373</v>
       </c>
       <c r="R11" s="1">
-        <v>948.098000</v>
+        <v>948.09799999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.654000</v>
+        <v>-103.654</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>9947.538863</v>
+        <v>9947.5388629999998</v>
       </c>
       <c r="V11" s="1">
-        <v>2.763205</v>
+        <v>2.7632050000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>954.810000</v>
+        <v>954.81</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.738600</v>
+        <v>-89.738600000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>9957.712304</v>
+        <v>9957.7123040000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.766031</v>
+        <v>2.7660309999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.958000</v>
+        <v>961.95799999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.447300</v>
+        <v>-80.447299999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>9968.246589</v>
+        <v>9968.2465890000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.768957</v>
+        <v>2.7689569999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.918000</v>
+        <v>966.91800000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.834300</v>
+        <v>-79.834299999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>9978.719366</v>
+        <v>9978.7193659999994</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.771866</v>
+        <v>2.7718660000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.897000</v>
+        <v>974.89700000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.761200</v>
+        <v>-87.761200000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>9989.503382</v>
+        <v>9989.5033820000008</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.774862</v>
+        <v>2.7748620000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.133000</v>
+        <v>984.13300000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.714000</v>
+        <v>-102.714</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>10000.503655</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.777918</v>
+        <v>2.7779180000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.544000</v>
+        <v>995.54399999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.319000</v>
+        <v>-124.319</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>10011.267337</v>
+        <v>10011.267336999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.780908</v>
+        <v>2.7809080000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.044000</v>
+        <v>-143.04400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>10022.175073</v>
@@ -2959,482 +3375,482 @@
         <v>2.783938</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.440000</v>
+        <v>1050.44</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.891000</v>
+        <v>-227.89099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>10033.346749</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.787041</v>
+        <v>2.7870409999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.235000</v>
+        <v>-364.23500000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>10044.003790</v>
+        <v>10044.003790000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.790001</v>
+        <v>2.7900010000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.478000</v>
+        <v>-575.47799999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>10054.891505</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.793025</v>
+        <v>2.7930250000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.030000</v>
+        <v>1409.03</v>
       </c>
       <c r="BV11" s="1">
-        <v>-801.643000</v>
+        <v>-801.64300000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>10065.710707</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.796031</v>
+        <v>2.7960310000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.180000</v>
+        <v>1571.18</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1037.250000</v>
+        <v>-1037.25</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>10078.033345</v>
       </c>
       <c r="CD11" s="1">
-        <v>2.799454</v>
+        <v>2.7994539999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1984.230000</v>
+        <v>1984.23</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1586.780000</v>
+        <v>-1586.78</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>9906.952723</v>
+        <v>9906.9527230000003</v>
       </c>
       <c r="B12" s="1">
-        <v>2.751931</v>
+        <v>2.7519309999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>902.373000</v>
+        <v>902.37300000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.108000</v>
+        <v>-194.108</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>9917.411398</v>
+        <v>9917.4113980000002</v>
       </c>
       <c r="G12" s="1">
-        <v>2.754836</v>
+        <v>2.7548360000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>919.399000</v>
+        <v>919.399</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.938000</v>
+        <v>-164.93799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>9927.499033</v>
+        <v>9927.4990330000001</v>
       </c>
       <c r="L12" s="1">
-        <v>2.757639</v>
+        <v>2.7576390000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>941.285000</v>
+        <v>941.28499999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.675000</v>
+        <v>-118.675</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>9937.693275</v>
+        <v>9937.6932749999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.760470</v>
+        <v>2.7604700000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>948.062000</v>
+        <v>948.06200000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.663000</v>
+        <v>-103.663</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>9947.874686</v>
+        <v>9947.8746859999992</v>
       </c>
       <c r="V12" s="1">
-        <v>2.763299</v>
+        <v>2.7632989999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>954.810000</v>
+        <v>954.81</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.728000</v>
+        <v>-89.727999999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>9958.063472</v>
+        <v>9958.0634719999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.766129</v>
+        <v>2.7661289999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.855000</v>
+        <v>961.85500000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.516800</v>
+        <v>-80.516800000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>9968.664001</v>
+        <v>9968.6640009999992</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.769073</v>
+        <v>2.7690730000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.964000</v>
+        <v>966.96400000000006</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.892900</v>
+        <v>-79.892899999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>9979.132533</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.771981</v>
+        <v>2.7719809999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.895000</v>
+        <v>974.89499999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.741800</v>
+        <v>-87.741799999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>9989.822341</v>
+        <v>9989.8223409999991</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.774951</v>
+        <v>2.7749510000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.125000</v>
+        <v>984.125</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.715000</v>
+        <v>-102.715</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>10000.894503</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.778026</v>
+        <v>2.7780260000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.529000</v>
+        <v>995.529</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.299000</v>
+        <v>-124.29900000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>10011.626441</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.781007</v>
+        <v>2.7810069999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.051000</v>
+        <v>-143.05099999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>10022.536939</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.784038</v>
+        <v>2.7840379999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.430000</v>
+        <v>1050.43</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.907000</v>
+        <v>-227.90700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>10033.719275</v>
+        <v>10033.719274999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.787144</v>
+        <v>2.7871440000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.640000</v>
+        <v>1129.6400000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.239000</v>
+        <v>-364.23899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>10044.420927</v>
+        <v>10044.420926999999</v>
       </c>
       <c r="BO12" s="1">
         <v>2.790117</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.471000</v>
+        <v>-575.471</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>10055.321035</v>
+        <v>10055.321035000001</v>
       </c>
       <c r="BT12" s="1">
         <v>2.793145</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.880000</v>
+        <v>1408.88</v>
       </c>
       <c r="BV12" s="1">
-        <v>-801.747000</v>
+        <v>-801.74699999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>10066.132834</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.796148</v>
+        <v>2.7961480000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.170000</v>
+        <v>1571.17</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1037.320000</v>
+        <v>-1037.32</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>10078.571499</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.799603</v>
+        <v>2.7996029999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1982.280000</v>
+        <v>1982.28</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1588.160000</v>
+        <v>-1588.16</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>9907.327204</v>
+        <v>9907.3272039999993</v>
       </c>
       <c r="B13" s="1">
-        <v>2.752035</v>
+        <v>2.7520349999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>902.428000</v>
+        <v>902.428</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.179000</v>
+        <v>-194.179</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>9917.758069</v>
+        <v>9917.7580689999995</v>
       </c>
       <c r="G13" s="1">
-        <v>2.754933</v>
+        <v>2.7549329999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>919.528000</v>
+        <v>919.52800000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.238000</v>
+        <v>-165.238</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>9927.847689</v>
+        <v>9927.8476890000002</v>
       </c>
       <c r="L13" s="1">
-        <v>2.757735</v>
+        <v>2.7577349999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>941.313000</v>
+        <v>941.31299999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.738000</v>
+        <v>-118.738</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>9938.040970</v>
+        <v>9938.04097</v>
       </c>
       <c r="Q13" s="1">
         <v>2.760567</v>
       </c>
       <c r="R13" s="1">
-        <v>948.064000</v>
+        <v>948.06399999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.635000</v>
+        <v>-103.63500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>9948.283357</v>
+        <v>9948.2833570000003</v>
       </c>
       <c r="V13" s="1">
-        <v>2.763412</v>
+        <v>2.7634120000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>954.835000</v>
+        <v>954.83500000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.722500</v>
+        <v>-89.722499999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>9958.472175</v>
+        <v>9958.4721750000008</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.766242</v>
+        <v>2.7662420000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.928000</v>
+        <v>961.928</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.366400</v>
+        <v>-80.366399999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>9968.938790</v>
+        <v>9968.9387900000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.769150</v>
+        <v>2.7691499999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.929000</v>
+        <v>966.92899999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.851800</v>
+        <v>-79.851799999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9979.419752</v>
+        <v>9979.4197519999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.772061</v>
+        <v>2.7720609999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.903000</v>
+        <v>974.90300000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.759000</v>
+        <v>-87.759</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>9990.186373</v>
+        <v>9990.1863730000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.775052</v>
+        <v>2.7750520000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.126000</v>
+        <v>984.12599999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.761000</v>
+        <v>-102.761</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>10001.258071</v>
@@ -3443,13 +3859,13 @@
         <v>2.778127</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.550000</v>
+        <v>995.55</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.320000</v>
+        <v>-124.32</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>10011.986042</v>
@@ -3458,88 +3874,88 @@
         <v>2.781107</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.054000</v>
+        <v>-143.054</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>10023.259114</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.784239</v>
+        <v>2.7842389999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.450000</v>
+        <v>1050.45</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.910000</v>
+        <v>-227.91</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>10034.552064</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.787376</v>
+        <v>2.7873760000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>10044.818717</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.790227</v>
+        <v>2.7902269999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.860000</v>
+        <v>1260.8599999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.496000</v>
+        <v>-575.49599999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>10055.730735</v>
+        <v>10055.730734999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.793259</v>
+        <v>2.7932589999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.780000</v>
+        <v>1408.78</v>
       </c>
       <c r="BV13" s="1">
-        <v>-801.830000</v>
+        <v>-801.83</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>10066.581682</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.796273</v>
+        <v>2.7962729999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.300000</v>
+        <v>1571.3</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1037.430000</v>
+        <v>-1037.43</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>10079.408223</v>
@@ -3548,150 +3964,150 @@
         <v>2.799836</v>
       </c>
       <c r="CE13" s="1">
-        <v>1983.580000</v>
+        <v>1983.58</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1586.470000</v>
+        <v>-1586.47</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>9907.673443</v>
+        <v>9907.6734429999997</v>
       </c>
       <c r="B14" s="1">
         <v>2.752132</v>
       </c>
       <c r="C14" s="1">
-        <v>902.427000</v>
+        <v>902.42700000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.243000</v>
+        <v>-194.24299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>9918.100981</v>
+        <v>9918.1009809999996</v>
       </c>
       <c r="G14" s="1">
-        <v>2.755028</v>
+        <v>2.7550279999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>919.692000</v>
+        <v>919.69200000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.905000</v>
+        <v>-164.905</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>9928.181000</v>
+        <v>9928.1810000000005</v>
       </c>
       <c r="L14" s="1">
-        <v>2.757828</v>
+        <v>2.7578279999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>941.363000</v>
+        <v>941.36300000000006</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.744000</v>
+        <v>-118.744</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>9938.452683</v>
+        <v>9938.4526829999995</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.760681</v>
+        <v>2.7606809999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.075000</v>
+        <v>948.07500000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.649000</v>
+        <v>-103.649</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>9948.575533</v>
+        <v>9948.5755329999993</v>
       </c>
       <c r="V14" s="1">
         <v>2.763493</v>
       </c>
       <c r="W14" s="1">
-        <v>954.765000</v>
+        <v>954.76499999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.596500</v>
+        <v>-89.596500000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>9958.763910</v>
+        <v>9958.7639099999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.766323</v>
+        <v>2.7663229999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.988000</v>
+        <v>961.98800000000006</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.593800</v>
+        <v>-80.593800000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>9969.279834</v>
+        <v>9969.2798340000008</v>
       </c>
       <c r="AF14" s="1">
         <v>2.769244</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.974000</v>
+        <v>966.97400000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.907300</v>
+        <v>-79.907300000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>9979.765924</v>
+        <v>9979.7659239999994</v>
       </c>
       <c r="AK14" s="1">
         <v>2.772157</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.897000</v>
+        <v>974.89700000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.724300</v>
+        <v>-87.724299999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>9990.544981</v>
+        <v>9990.5449809999991</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.775151</v>
+        <v>2.7751510000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.119000</v>
+        <v>984.11900000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.734000</v>
+        <v>-102.73399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>10001.975794</v>
@@ -3700,315 +4116,315 @@
         <v>2.778327</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.554000</v>
+        <v>995.55399999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.285000</v>
+        <v>-124.285</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>10012.702263</v>
+        <v>10012.702262999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.781306</v>
+        <v>2.7813059999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.190000</v>
+        <v>1005.19</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.058000</v>
+        <v>-143.05799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>10023.649467</v>
+        <v>10023.649466999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.784347</v>
+        <v>2.7843469999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1050.440000</v>
+        <v>1050.44</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.906000</v>
+        <v>-227.90600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>10034.865994</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.787463</v>
+        <v>2.7874629999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.243000</v>
+        <v>-364.24299999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>10045.242333</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.790345</v>
+        <v>2.7903449999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.447000</v>
+        <v>-575.447</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>10056.464781</v>
+        <v>10056.464781000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.793462</v>
+        <v>2.7934619999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.670000</v>
+        <v>1408.67</v>
       </c>
       <c r="BV14" s="1">
-        <v>-801.918000</v>
+        <v>-801.91800000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>10067.311827</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.796476</v>
+        <v>2.7964760000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.330000</v>
+        <v>1571.33</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1037.400000</v>
+        <v>-1037.4000000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>10079.653079</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.799904</v>
+        <v>2.7999040000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1983.810000</v>
+        <v>1983.81</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1586.130000</v>
+        <v>-1586.13</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>9908.017138</v>
+        <v>9908.0171379999992</v>
       </c>
       <c r="B15" s="1">
         <v>2.752227</v>
       </c>
       <c r="C15" s="1">
-        <v>902.354000</v>
+        <v>902.35400000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-193.941000</v>
+        <v>-193.941</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>9918.518437</v>
+        <v>9918.5184370000006</v>
       </c>
       <c r="G15" s="1">
         <v>2.755144</v>
       </c>
       <c r="H15" s="1">
-        <v>919.111000</v>
+        <v>919.11099999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.761000</v>
+        <v>-164.761</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>9928.612519</v>
+        <v>9928.6125190000002</v>
       </c>
       <c r="L15" s="1">
-        <v>2.757948</v>
+        <v>2.7579479999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>941.424000</v>
+        <v>941.42399999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.771000</v>
+        <v>-118.771</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>9938.749754</v>
+        <v>9938.7497540000004</v>
       </c>
       <c r="Q15" s="1">
         <v>2.760764</v>
       </c>
       <c r="R15" s="1">
-        <v>948.090000</v>
+        <v>948.09</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.638000</v>
+        <v>-103.63800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>9948.914942</v>
+        <v>9948.9149419999994</v>
       </c>
       <c r="V15" s="1">
-        <v>2.763587</v>
+        <v>2.7635869999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>954.791000</v>
+        <v>954.79100000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.627000</v>
+        <v>-89.626999999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>9959.113829</v>
+        <v>9959.1138289999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.766421</v>
+        <v>2.7664209999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.952000</v>
+        <v>961.952</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.523000</v>
+        <v>-80.522999999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>9969.624225</v>
+        <v>9969.6242249999996</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.769340</v>
+        <v>2.7693400000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.954000</v>
+        <v>966.95399999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.911700</v>
+        <v>-79.911699999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>9980.116601</v>
+        <v>9980.1166009999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.772255</v>
+        <v>2.7722549999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.887000</v>
+        <v>974.88699999999994</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.739700</v>
+        <v>-87.739699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>9991.264180</v>
+        <v>9991.2641800000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.775351</v>
+        <v>2.7753510000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.135000</v>
+        <v>984.13499999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.725000</v>
+        <v>-102.72499999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>10002.380021</v>
+        <v>10002.380021000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.778439</v>
+        <v>2.7784390000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.528000</v>
+        <v>995.52800000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.306000</v>
+        <v>-124.306</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>10013.059053</v>
+        <v>10013.059053000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.781405</v>
+        <v>2.7814049999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.039000</v>
+        <v>-143.03899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>10024.009065</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.784447</v>
+        <v>2.7844470000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.420000</v>
+        <v>1050.42</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.908000</v>
+        <v>-227.90799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>10035.539570</v>
+        <v>10035.539570000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.787650</v>
+        <v>2.7876500000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.199000</v>
+        <v>-364.19900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>10045.934716</v>
@@ -4017,300 +4433,300 @@
         <v>2.790537</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.472000</v>
+        <v>-575.47199999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>10056.586303</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.793496</v>
+        <v>2.7934960000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.490000</v>
+        <v>1408.49</v>
       </c>
       <c r="BV15" s="1">
-        <v>-801.877000</v>
+        <v>-801.87699999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>10067.444223</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.796512</v>
+        <v>2.7965119999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.280000</v>
+        <v>1571.28</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1037.350000</v>
+        <v>-1037.3499999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>10080.172593</v>
+        <v>10080.172592999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.800048</v>
+        <v>2.8000479999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1982.390000</v>
+        <v>1982.39</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1587.480000</v>
+        <v>-1587.48</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>9908.435094</v>
+        <v>9908.4350940000004</v>
       </c>
       <c r="B16" s="1">
-        <v>2.752343</v>
+        <v>2.7523430000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>902.484000</v>
+        <v>902.48400000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.066000</v>
+        <v>-194.066</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>9918.798676</v>
+        <v>9918.7986760000003</v>
       </c>
       <c r="G16" s="1">
-        <v>2.755222</v>
+        <v>2.7552219999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>919.476000</v>
+        <v>919.476</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.849000</v>
+        <v>-164.84899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>9928.882886</v>
+        <v>9928.8828859999994</v>
       </c>
       <c r="L16" s="1">
-        <v>2.758023</v>
+        <v>2.7580230000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.560000</v>
+        <v>941.56</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.336000</v>
+        <v>-118.336</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>9939.099434</v>
+        <v>9939.0994339999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.760861</v>
+        <v>2.7608609999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>948.109000</v>
+        <v>948.10900000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.614000</v>
+        <v>-103.614</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>9949.263957</v>
+        <v>9949.2639569999992</v>
       </c>
       <c r="V16" s="1">
         <v>2.763684</v>
       </c>
       <c r="W16" s="1">
-        <v>954.814000</v>
+        <v>954.81399999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.703300</v>
+        <v>-89.703299999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>9959.460206</v>
+        <v>9959.4602059999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.766517</v>
+        <v>2.7665169999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.959000</v>
+        <v>961.95899999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.510000</v>
+        <v>-80.510000000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>9970.310192</v>
+        <v>9970.3101920000008</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.769531</v>
+        <v>2.7695310000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.933000</v>
+        <v>966.93299999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.879300</v>
+        <v>-79.879300000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>9980.811842</v>
+        <v>9980.8118419999992</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.772448</v>
+        <v>2.7724479999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.911000</v>
+        <v>974.91099999999994</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.754500</v>
+        <v>-87.754499999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>9991.624276</v>
+        <v>9991.6242760000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.775451</v>
+        <v>2.7754509999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.129000</v>
+        <v>984.12900000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.750000</v>
+        <v>-102.75</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>10002.742101</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.778539</v>
+        <v>2.7785389999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.539000</v>
+        <v>995.53899999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.313000</v>
+        <v>-124.313</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>10013.418515</v>
+        <v>10013.418514999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.781505</v>
+        <v>2.7815050000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.068000</v>
+        <v>-143.06800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>10024.674200</v>
+        <v>10024.674199999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.784632</v>
+        <v>2.7846320000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.450000</v>
+        <v>1050.45</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.895000</v>
+        <v>-227.89500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>10035.648185</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.787680</v>
+        <v>2.7876799999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.222000</v>
+        <v>-364.22199999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>10046.054252</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.790571</v>
+        <v>2.7905709999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.514000</v>
+        <v>-575.51400000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>10057.000985</v>
+        <v>10057.000985000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.793611</v>
+        <v>2.7936109999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.400000</v>
+        <v>1408.4</v>
       </c>
       <c r="BV16" s="1">
-        <v>-801.856000</v>
+        <v>-801.85599999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>10067.873759</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.796632</v>
+        <v>2.7966319999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.310000</v>
+        <v>1571.31</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1037.410000</v>
+        <v>-1037.4100000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>10080.692896</v>
@@ -4319,16 +4735,16 @@
         <v>2.800192</v>
       </c>
       <c r="CE16" s="1">
-        <v>1983.170000</v>
+        <v>1983.17</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1588.550000</v>
+        <v>-1588.55</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>9908.715537</v>
       </c>
@@ -4336,677 +4752,677 @@
         <v>2.752421</v>
       </c>
       <c r="C17" s="1">
-        <v>902.465000</v>
+        <v>902.46500000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.368000</v>
+        <v>-194.36799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>9919.140915</v>
+        <v>9919.1409149999999</v>
       </c>
       <c r="G17" s="1">
-        <v>2.755317</v>
+        <v>2.7553169999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>919.578000</v>
+        <v>919.57799999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.352000</v>
+        <v>-165.352</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>9929.216150</v>
+        <v>9929.2161500000002</v>
       </c>
       <c r="L17" s="1">
-        <v>2.758116</v>
+        <v>2.7581159999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>941.443000</v>
+        <v>941.44299999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.646000</v>
+        <v>-118.646</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>9939.445642</v>
+        <v>9939.4456420000006</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.760957</v>
+        <v>2.7609569999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.203000</v>
+        <v>948.20299999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.699000</v>
+        <v>-103.699</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>9949.943963</v>
+        <v>9949.9439629999997</v>
       </c>
       <c r="V17" s="1">
-        <v>2.763873</v>
+        <v>2.7638729999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>954.873000</v>
+        <v>954.87300000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.698900</v>
+        <v>-89.698899999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>9960.159565</v>
+        <v>9960.1595649999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.766711</v>
+        <v>2.7667109999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.946000</v>
+        <v>961.94600000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.459000</v>
+        <v>-80.459000000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>9970.653425</v>
+        <v>9970.6534250000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.769626</v>
+        <v>2.7696260000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.919000</v>
+        <v>966.91899999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.860300</v>
+        <v>-79.860299999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>9981.160673</v>
+        <v>9981.1606730000003</v>
       </c>
       <c r="AK17" s="1">
         <v>2.772545</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.895000</v>
+        <v>974.89499999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.757300</v>
+        <v>-87.757300000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>9991.985363</v>
+        <v>9991.9853629999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.775551</v>
+        <v>2.7755510000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.119000</v>
+        <v>984.11900000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.746000</v>
+        <v>-102.746</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>10003.410742</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.778725</v>
+        <v>2.7787250000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.542000</v>
+        <v>995.54200000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.285000</v>
+        <v>-124.285</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>10014.081638</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.781689</v>
+        <v>2.7816890000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.190000</v>
+        <v>1005.19</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.051000</v>
+        <v>-143.05099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>10025.127575</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.784758</v>
+        <v>2.7847580000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.460000</v>
+        <v>1050.46</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.892000</v>
+        <v>-227.892</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>10036.021208</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.787784</v>
+        <v>2.7877839999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.255000</v>
+        <v>-364.255</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>10046.482827</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.790690</v>
+        <v>2.7906900000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.505000</v>
+        <v>-575.505</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>10057.430988</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.793731</v>
+        <v>2.7937310000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.280000</v>
+        <v>1408.28</v>
       </c>
       <c r="BV17" s="1">
-        <v>-801.700000</v>
+        <v>-801.7</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>10068.284943</v>
+        <v>10068.284943000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.796746</v>
+        <v>2.7967460000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.260000</v>
+        <v>1571.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1037.390000</v>
+        <v>-1037.3900000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>10081.208733</v>
+        <v>10081.208732999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.800336</v>
+        <v>2.8003360000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1984.330000</v>
+        <v>1984.33</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1587.570000</v>
+        <v>-1587.57</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>9909.057745</v>
+        <v>9909.0577450000001</v>
       </c>
       <c r="B18" s="1">
         <v>2.752516</v>
       </c>
       <c r="C18" s="1">
-        <v>902.296000</v>
+        <v>902.29600000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.127000</v>
+        <v>-194.12700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>9919.485667</v>
+        <v>9919.4856670000008</v>
       </c>
       <c r="G18" s="1">
-        <v>2.755413</v>
+        <v>2.7554129999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>919.218000</v>
+        <v>919.21799999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.694000</v>
+        <v>-164.69399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>9929.574794</v>
+        <v>9929.5747940000001</v>
       </c>
       <c r="L18" s="1">
-        <v>2.758215</v>
+        <v>2.7582149999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>941.388000</v>
+        <v>941.38800000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.713000</v>
+        <v>-118.71299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>9940.142551</v>
+        <v>9940.1425510000008</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.761151</v>
+        <v>2.7611509999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>948.199000</v>
+        <v>948.19899999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.714000</v>
+        <v>-103.714</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>9950.289675</v>
       </c>
       <c r="V18" s="1">
-        <v>2.763969</v>
+        <v>2.7639689999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>954.855000</v>
+        <v>954.85500000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.699000</v>
+        <v>-89.698999999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>9960.507288</v>
+        <v>9960.5072880000007</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.766808</v>
+        <v>2.7668080000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.996000</v>
+        <v>961.99599999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.520900</v>
+        <v>-80.520899999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>9970.999166</v>
+        <v>9970.9991659999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.769722</v>
+        <v>2.7697219999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.923000</v>
+        <v>966.923</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.883200</v>
+        <v>-79.883200000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>9981.508904</v>
+        <v>9981.5089040000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.772641</v>
+        <v>2.7726410000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.884000</v>
+        <v>974.88400000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.717300</v>
+        <v>-87.717299999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>9992.657938</v>
+        <v>9992.6579380000003</v>
       </c>
       <c r="AP18" s="1">
         <v>2.775738</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.115000</v>
+        <v>984.11500000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.719000</v>
+        <v>-102.71899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>10003.873475</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.778854</v>
+        <v>2.7788539999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.542000</v>
+        <v>995.54200000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.312000</v>
+        <v>-124.312</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>10014.527574</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.781813</v>
+        <v>2.7818130000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.037000</v>
+        <v>-143.03700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>10025.488665</v>
+        <v>10025.488665000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.784858</v>
+        <v>2.7848579999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.420000</v>
+        <v>1050.42</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.886000</v>
+        <v>-227.886</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>10036.397144</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.787888</v>
+        <v>2.7878880000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.590000</v>
+        <v>1129.5899999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.232000</v>
+        <v>-364.23200000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>10046.878133</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.790799</v>
+        <v>2.7907989999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.471000</v>
+        <v>-575.471</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>10057.860560</v>
+        <v>10057.860559999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.793850</v>
+        <v>2.7938499999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.110000</v>
+        <v>1408.11</v>
       </c>
       <c r="BV18" s="1">
-        <v>-801.725000</v>
+        <v>-801.72500000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>10068.737790</v>
+        <v>10068.737789999999</v>
       </c>
       <c r="BY18" s="1">
         <v>2.796872</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.280000</v>
+        <v>1571.28</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1037.290000</v>
+        <v>-1037.29</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>10081.726525</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.800480</v>
+        <v>2.8004799999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1984.160000</v>
+        <v>1984.16</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1588.100000</v>
+        <v>-1588.1</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>9909.398992</v>
+        <v>9909.3989920000004</v>
       </c>
       <c r="B19" s="1">
-        <v>2.752611</v>
+        <v>2.7526109999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.681000</v>
+        <v>902.68100000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.152000</v>
+        <v>-194.15199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>9920.177555</v>
+        <v>9920.1775550000002</v>
       </c>
       <c r="G19" s="1">
-        <v>2.755605</v>
+        <v>2.7556050000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.196000</v>
+        <v>919.19600000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.704000</v>
+        <v>-164.70400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>9930.298917</v>
+        <v>9930.2989170000001</v>
       </c>
       <c r="L19" s="1">
         <v>2.758416</v>
       </c>
       <c r="M19" s="1">
-        <v>941.426000</v>
+        <v>941.42600000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.631000</v>
+        <v>-118.631</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>9940.492199</v>
+        <v>9940.4921990000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.761248</v>
+        <v>2.7612480000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.195000</v>
+        <v>948.19500000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.747000</v>
+        <v>-103.747</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>9950.631947</v>
+        <v>9950.6319469999999</v>
       </c>
       <c r="V19" s="1">
-        <v>2.764064</v>
+        <v>2.7640639999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>954.880000</v>
+        <v>954.88</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.701500</v>
+        <v>-89.701499999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>9960.855980</v>
+        <v>9960.8559800000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.766904</v>
+        <v>2.7669039999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.859000</v>
+        <v>961.85900000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.545800</v>
+        <v>-80.5458</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>9971.637022</v>
+        <v>9971.6370220000008</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.769899</v>
+        <v>2.7698990000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.970000</v>
+        <v>966.97</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.888000</v>
+        <v>-79.888000000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>9982.287088</v>
+        <v>9982.2870879999991</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.772858</v>
+        <v>2.7728579999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.910000</v>
+        <v>974.91</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.776600</v>
+        <v>-87.776600000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>9993.094156</v>
+        <v>9993.0941559999992</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.775859</v>
+        <v>2.7758590000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.128000</v>
+        <v>984.12800000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.738000</v>
+        <v>-102.738</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>10004.238035</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.778955</v>
+        <v>2.7789549999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.554000</v>
+        <v>995.55399999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.314000</v>
+        <v>-124.31399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>10014.887173</v>
+        <v>10014.887172999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.781913</v>
+        <v>2.7819129999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.180000</v>
+        <v>1005.18</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.046000</v>
+        <v>-143.04599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>10025.850214</v>
@@ -5015,43 +5431,43 @@
         <v>2.784958</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.420000</v>
+        <v>1050.42</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.909000</v>
+        <v>-227.90899999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>10036.813817</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.788004</v>
+        <v>2.7880039999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.640000</v>
+        <v>1129.6400000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>10047.300202</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.790917</v>
+        <v>2.7909169999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.485000</v>
+        <v>-575.48500000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>10058.272203</v>
@@ -5060,225 +5476,225 @@
         <v>2.793965</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.180000</v>
+        <v>1408.18</v>
       </c>
       <c r="BV19" s="1">
-        <v>-801.514000</v>
+        <v>-801.51400000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>10069.158929</v>
+        <v>10069.158928999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.796989</v>
+        <v>2.7969889999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.230000</v>
+        <v>1571.23</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1037.370000</v>
+        <v>-1037.3699999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>10082.279565</v>
+        <v>10082.279565000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.800633</v>
+        <v>2.8006329999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1982.990000</v>
+        <v>1982.99</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1588.310000</v>
+        <v>-1588.31</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>9910.080527</v>
+        <v>9910.0805270000001</v>
       </c>
       <c r="B20" s="1">
-        <v>2.752800</v>
+        <v>2.7528000000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>902.445000</v>
+        <v>902.44500000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.189000</v>
+        <v>-194.18899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>9920.519298</v>
+        <v>9920.5192979999993</v>
       </c>
       <c r="G20" s="1">
-        <v>2.755700</v>
+        <v>2.7557</v>
       </c>
       <c r="H20" s="1">
-        <v>919.198000</v>
+        <v>919.19799999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.052000</v>
+        <v>-165.05199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>9930.613380</v>
+        <v>9930.6133800000007</v>
       </c>
       <c r="L20" s="1">
-        <v>2.758504</v>
+        <v>2.7585039999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>941.434000</v>
+        <v>941.43399999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.883000</v>
+        <v>-118.883</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>9940.840919</v>
+        <v>9940.8409190000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.761345</v>
+        <v>2.7613449999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.224000</v>
+        <v>948.22400000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.725000</v>
+        <v>-103.72499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>9951.272281</v>
+        <v>9951.2722809999996</v>
       </c>
       <c r="V20" s="1">
-        <v>2.764242</v>
+        <v>2.7642419999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>954.908000</v>
+        <v>954.90800000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.687300</v>
+        <v>-89.687299999999993</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>9961.503723</v>
+        <v>9961.5037229999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.767084</v>
+        <v>2.7670840000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.919000</v>
+        <v>961.91899999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.407500</v>
+        <v>-80.407499999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>9972.028334</v>
+        <v>9972.0283340000005</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.770008</v>
+        <v>2.7700079999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.938000</v>
+        <v>966.93799999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.868300</v>
+        <v>-79.868300000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>9982.552480</v>
+        <v>9982.5524800000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.772931</v>
+        <v>2.7729309999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.888000</v>
+        <v>974.88800000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.728400</v>
+        <v>-87.728399999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>9993.455010</v>
+        <v>9993.4550099999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.775960</v>
+        <v>2.77596</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.133000</v>
+        <v>984.13300000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.733000</v>
+        <v>-102.733</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>10004.605602</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.779057</v>
+        <v>2.7790569999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.536000</v>
+        <v>995.53599999999994</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.302000</v>
+        <v>-124.30200000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>10015.244262</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.782012</v>
+        <v>2.7820119999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.047000</v>
+        <v>-143.047</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>10026.264871</v>
+        <v>10026.264870999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.785074</v>
+        <v>2.7850739999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.450000</v>
+        <v>1050.45</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.890000</v>
+        <v>-227.89</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>10037.172424</v>
@@ -5287,255 +5703,255 @@
         <v>2.788103</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.209000</v>
+        <v>-364.209</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>10047.695554</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.791027</v>
+        <v>2.7910270000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.477000</v>
+        <v>-575.47699999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>10058.701740</v>
+        <v>10058.70174</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.794084</v>
+        <v>2.7940839999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.150000</v>
+        <v>1408.15</v>
       </c>
       <c r="BV20" s="1">
-        <v>-801.398000</v>
+        <v>-801.39800000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>10069.582476</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.797106</v>
+        <v>2.7971059999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.230000</v>
+        <v>1571.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1037.280000</v>
+        <v>-1037.28</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>10082.810284</v>
+        <v>10082.810283999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.800781</v>
+        <v>2.8007810000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.050000</v>
+        <v>1984.05</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1587.910000</v>
+        <v>-1587.91</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>9910.425215</v>
+        <v>9910.4252149999993</v>
       </c>
       <c r="B21" s="1">
-        <v>2.752896</v>
+        <v>2.7528959999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>902.525000</v>
+        <v>902.52499999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.206000</v>
+        <v>-194.20599999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>9920.867494</v>
+        <v>9920.8674940000001</v>
       </c>
       <c r="G21" s="1">
-        <v>2.755797</v>
+        <v>2.7557969999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>919.477000</v>
+        <v>919.47699999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.612000</v>
+        <v>-164.61199999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>9931.266364</v>
+        <v>9931.2663639999992</v>
       </c>
       <c r="L21" s="1">
-        <v>2.758685</v>
+        <v>2.7586849999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>941.460000</v>
+        <v>941.46</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.904000</v>
+        <v>-118.904</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>9941.488663</v>
+        <v>9941.4886630000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.761525</v>
+        <v>2.7615249999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>948.215000</v>
+        <v>948.21500000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.645000</v>
+        <v>-103.645</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>9951.664088</v>
+        <v>9951.6640879999995</v>
       </c>
       <c r="V21" s="1">
         <v>2.764351</v>
       </c>
       <c r="W21" s="1">
-        <v>954.912000</v>
+        <v>954.91200000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.708700</v>
+        <v>-89.708699999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>9961.902506</v>
+        <v>9961.9025060000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.767195</v>
+        <v>2.7671950000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.950000</v>
+        <v>961.95</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.323300</v>
+        <v>-80.323300000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>9972.371565</v>
+        <v>9972.3715649999995</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.770103</v>
+        <v>2.7701030000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.922000</v>
+        <v>966.92200000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.852200</v>
+        <v>-79.852199999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>9982.903151</v>
+        <v>9982.9031510000004</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.773029</v>
+        <v>2.7730290000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.905000</v>
+        <v>974.90499999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.741400</v>
+        <v>-87.741399999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>9993.816130</v>
+        <v>9993.8161299999992</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.776060</v>
+        <v>2.7760600000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.133000</v>
+        <v>984.13300000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.721000</v>
+        <v>-102.721</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>10005.017286</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.779171</v>
+        <v>2.7791709999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.548000</v>
+        <v>995.548</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.306000</v>
+        <v>-124.306</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>10015.674292</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.782132</v>
+        <v>2.7821319999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.065000</v>
+        <v>-143.065</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>10026.570901</v>
+        <v>10026.570900999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.785159</v>
+        <v>2.7851590000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.420000</v>
+        <v>1050.42</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.870000</v>
+        <v>-227.87</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>10037.549351</v>
@@ -5544,90 +5960,90 @@
         <v>2.788208</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.610000</v>
+        <v>1129.6099999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.239000</v>
+        <v>-364.23899999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>10048.115626</v>
+        <v>10048.115626000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.791143</v>
+        <v>2.7911429999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.505000</v>
+        <v>-575.505</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>10059.128330</v>
+        <v>10059.12833</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.794202</v>
+        <v>2.7942019999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.160000</v>
+        <v>1408.16</v>
       </c>
       <c r="BV21" s="1">
-        <v>-801.240000</v>
+        <v>-801.24</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>10070.029373</v>
+        <v>10070.029372999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.797230</v>
+        <v>2.7972299999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.250000</v>
+        <v>1571.25</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1037.250000</v>
+        <v>-1037.25</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>10083.328635</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.800925</v>
+        <v>2.8009249999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1983.640000</v>
+        <v>1983.64</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1586.510000</v>
+        <v>-1586.51</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>9910.765471</v>
+        <v>9910.7654710000006</v>
       </c>
       <c r="B22" s="1">
-        <v>2.752990</v>
+        <v>2.75299</v>
       </c>
       <c r="C22" s="1">
-        <v>902.527000</v>
+        <v>902.52700000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.142000</v>
+        <v>-194.142</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>9921.502375</v>
@@ -5636,178 +6052,178 @@
         <v>2.755973</v>
       </c>
       <c r="H22" s="1">
-        <v>918.942000</v>
+        <v>918.94200000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.856000</v>
+        <v>-164.85599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>9931.646578</v>
+        <v>9931.6465779999999</v>
       </c>
       <c r="L22" s="1">
         <v>2.758791</v>
       </c>
       <c r="M22" s="1">
-        <v>941.317000</v>
+        <v>941.31700000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.667000</v>
+        <v>-118.667</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>9941.886950</v>
+        <v>9941.8869500000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.761635</v>
+        <v>2.7616350000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.296000</v>
+        <v>948.29600000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.630000</v>
+        <v>-103.63</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>9952.007848</v>
+        <v>9952.0078479999993</v>
       </c>
       <c r="V22" s="1">
-        <v>2.764447</v>
+        <v>2.7644470000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.862000</v>
+        <v>954.86199999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.690900</v>
+        <v>-89.690899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>9962.248714</v>
+        <v>9962.2487139999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.767291</v>
+        <v>2.7672910000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.927000</v>
+        <v>961.92700000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.304100</v>
+        <v>-80.304100000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>9972.719261</v>
+        <v>9972.7192610000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.770200</v>
+        <v>2.7702</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.944000</v>
+        <v>966.94399999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.897800</v>
+        <v>-79.897800000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>9983.315803</v>
+        <v>9983.3158029999995</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.773143</v>
+        <v>2.7731430000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.905000</v>
+        <v>974.90499999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.740900</v>
+        <v>-87.740899999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>9994.226816</v>
+        <v>9994.2268160000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.776174</v>
+        <v>2.7761740000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.134000</v>
+        <v>984.13400000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.736000</v>
+        <v>-102.736</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>10005.332209</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.779259</v>
+        <v>2.7792590000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.537000</v>
+        <v>995.53700000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.290000</v>
+        <v>-124.29</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>10015.961475</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.782212</v>
+        <v>2.7822119999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.036000</v>
+        <v>-143.036</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>10026.930536</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.785258</v>
+        <v>2.7852579999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.410000</v>
+        <v>1050.4100000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.871000</v>
+        <v>-227.87100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>10037.923498</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.788312</v>
+        <v>2.7883119999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.239000</v>
+        <v>-364.23899999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>10048.527832</v>
@@ -5816,255 +6232,255 @@
         <v>2.791258</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.511000</v>
+        <v>-575.51099999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>10059.543945</v>
+        <v>10059.543944999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.794318</v>
+        <v>2.7943180000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.350000</v>
+        <v>1408.35</v>
       </c>
       <c r="BV22" s="1">
-        <v>-801.221000</v>
+        <v>-801.221</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>10070.882988</v>
+        <v>10070.882987999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.797467</v>
+        <v>2.7974670000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.170000</v>
+        <v>1571.17</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1037.230000</v>
+        <v>-1037.23</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>10083.847417</v>
+        <v>10083.847417000001</v>
       </c>
       <c r="CD22" s="1">
         <v>2.801069</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.440000</v>
+        <v>1982.44</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1587.530000</v>
+        <v>-1587.53</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>9911.414765</v>
+        <v>9911.4147649999995</v>
       </c>
       <c r="B23" s="1">
         <v>2.753171</v>
       </c>
       <c r="C23" s="1">
-        <v>902.379000</v>
+        <v>902.37900000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.246000</v>
+        <v>-194.24600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>9921.898176</v>
+        <v>9921.8981760000006</v>
       </c>
       <c r="G23" s="1">
-        <v>2.756083</v>
+        <v>2.7560829999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>919.302000</v>
+        <v>919.30200000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.280000</v>
+        <v>-165.28</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>9931.993279</v>
+        <v>9931.9932790000003</v>
       </c>
       <c r="L23" s="1">
-        <v>2.758887</v>
+        <v>2.7588870000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>941.595000</v>
+        <v>941.59500000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.929000</v>
+        <v>-118.929</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>9942.235638</v>
+        <v>9942.2356380000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.761732</v>
+        <v>2.7617319999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>948.266000</v>
+        <v>948.26599999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.674000</v>
+        <v>-103.67400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>9952.351080</v>
+        <v>9952.3510800000004</v>
       </c>
       <c r="V23" s="1">
-        <v>2.764542</v>
+        <v>2.7645420000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>954.900000</v>
+        <v>954.9</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.695100</v>
+        <v>-89.695099999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>9962.598890</v>
+        <v>9962.5988899999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.767389</v>
+        <v>2.7673890000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.973000</v>
+        <v>961.97299999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.370900</v>
+        <v>-80.370900000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>9973.136893</v>
+        <v>9973.1368930000008</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.770316</v>
+        <v>2.7703159999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.952000</v>
+        <v>966.952</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.887100</v>
+        <v>-79.887100000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>9983.614878</v>
+        <v>9983.6148780000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.773226</v>
+        <v>2.7732260000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.891000</v>
+        <v>974.89099999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.743300</v>
+        <v>-87.743300000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>9994.534305</v>
+        <v>9994.5343049999992</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.776260</v>
+        <v>2.7762600000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.119000</v>
+        <v>984.11900000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.740000</v>
+        <v>-102.74</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>10005.695308</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.779360</v>
+        <v>2.7793600000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.541000</v>
+        <v>995.54100000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.312000</v>
+        <v>-124.312</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>10016.312644</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.782309</v>
+        <v>2.7823090000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.046000</v>
+        <v>-143.04599999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>10027.296052</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.785360</v>
+        <v>2.7853599999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.420000</v>
+        <v>1050.42</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.903000</v>
+        <v>-227.90299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>10038.695109</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.788526</v>
+        <v>2.7885260000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.210000</v>
+        <v>-364.21</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>10048.938488</v>
@@ -6073,43 +6489,43 @@
         <v>2.791372</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.489000</v>
+        <v>-575.48900000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>10059.972489</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.794437</v>
+        <v>2.7944369999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.360000</v>
+        <v>1408.36</v>
       </c>
       <c r="BV23" s="1">
-        <v>-801.165000</v>
+        <v>-801.16499999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>10071.304091</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.797584</v>
+        <v>2.7975840000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.260000</v>
+        <v>1571.26</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1037.250000</v>
+        <v>-1037.25</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>10084.362265</v>
@@ -6118,452 +6534,452 @@
         <v>2.801212</v>
       </c>
       <c r="CE23" s="1">
-        <v>1983.250000</v>
+        <v>1983.25</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1588.600000</v>
+        <v>-1588.6</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>9911.791693</v>
+        <v>9911.7916929999992</v>
       </c>
       <c r="B24" s="1">
-        <v>2.753275</v>
+        <v>2.7532749999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>902.329000</v>
+        <v>902.32899999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.052000</v>
+        <v>-194.05199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9922.240911</v>
+        <v>9922.2409110000008</v>
       </c>
       <c r="G24" s="1">
-        <v>2.756178</v>
+        <v>2.7561779999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>919.063000</v>
+        <v>919.06299999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.083000</v>
+        <v>-165.083</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>9932.337475</v>
+        <v>9932.3374750000003</v>
       </c>
       <c r="L24" s="1">
-        <v>2.758983</v>
+        <v>2.7589830000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>941.177000</v>
+        <v>941.17700000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.864000</v>
+        <v>-118.864</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>9942.585812</v>
+        <v>9942.5858119999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.761829</v>
+        <v>2.7618290000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>948.271000</v>
+        <v>948.27099999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.691000</v>
+        <v>-103.691</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>9952.763721</v>
+        <v>9952.7637209999994</v>
       </c>
       <c r="V24" s="1">
-        <v>2.764657</v>
+        <v>2.7646570000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>954.833000</v>
+        <v>954.83299999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.607900</v>
+        <v>-89.607900000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>9963.009120</v>
+        <v>9963.0091200000006</v>
       </c>
       <c r="AA24" s="1">
         <v>2.767503</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.044000</v>
+        <v>962.04399999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.358700</v>
+        <v>-80.358699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>9973.425067</v>
+        <v>9973.4250670000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.770396</v>
+        <v>2.7703959999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.952000</v>
+        <v>966.952</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.887400</v>
+        <v>-79.8874</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>9983.961098</v>
+        <v>9983.9610979999998</v>
       </c>
       <c r="AK24" s="1">
         <v>2.773323</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.908000</v>
+        <v>974.90800000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.757100</v>
+        <v>-87.757099999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>9994.894928</v>
+        <v>9994.8949279999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.776360</v>
+        <v>2.7763599999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.130000</v>
+        <v>984.13</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.759000</v>
+        <v>-102.759</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>10006.059686</v>
+        <v>10006.059686000001</v>
       </c>
       <c r="AU24" s="1">
         <v>2.779461</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.548000</v>
+        <v>995.548</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.297000</v>
+        <v>-124.297</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>10016.681170</v>
+        <v>10016.68117</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.782411</v>
+        <v>2.7824110000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.054000</v>
+        <v>-143.054</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>10028.016243</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.785560</v>
+        <v>2.7855599999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1050.420000</v>
+        <v>1050.42</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.883000</v>
+        <v>-227.88300000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>10039.070613</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.788631</v>
+        <v>2.7886310000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.600000</v>
+        <v>1129.5999999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.231000</v>
+        <v>-364.23099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>10049.333335</v>
+        <v>10049.333334999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.791481</v>
+        <v>2.7914810000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.464000</v>
+        <v>-575.46400000000006</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>10060.399082</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.794555</v>
+        <v>2.7945549999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.620000</v>
+        <v>1408.62</v>
       </c>
       <c r="BV24" s="1">
-        <v>-801.146000</v>
+        <v>-801.14599999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>10072.024778</v>
+        <v>10072.024778000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.797785</v>
+        <v>2.7977850000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.320000</v>
+        <v>1571.32</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1037.450000</v>
+        <v>-1037.45</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>10085.183671</v>
+        <v>10085.183671000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.801440</v>
+        <v>2.8014399999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1984.930000</v>
+        <v>1984.93</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1587.670000</v>
+        <v>-1587.67</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>9912.143854</v>
+        <v>9912.1438539999999</v>
       </c>
       <c r="B25" s="1">
-        <v>2.753373</v>
+        <v>2.7533729999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>902.324000</v>
+        <v>902.32399999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.239000</v>
+        <v>-194.239</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>9922.589599</v>
+        <v>9922.5895990000008</v>
       </c>
       <c r="G25" s="1">
         <v>2.756275</v>
       </c>
       <c r="H25" s="1">
-        <v>918.955000</v>
+        <v>918.95500000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.883000</v>
+        <v>-164.88300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>9932.753121</v>
+        <v>9932.7531209999997</v>
       </c>
       <c r="L25" s="1">
-        <v>2.759098</v>
+        <v>2.7590979999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>941.401000</v>
+        <v>941.40099999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.725000</v>
+        <v>-118.72499999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>9942.997988</v>
+        <v>9942.9979879999992</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.761944</v>
+        <v>2.7619440000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>948.250000</v>
+        <v>948.25</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.715000</v>
+        <v>-103.715</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>9953.064790</v>
+        <v>9953.0647900000004</v>
       </c>
       <c r="V25" s="1">
-        <v>2.764740</v>
+        <v>2.7647400000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>954.820000</v>
+        <v>954.82</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.687800</v>
+        <v>-89.687799999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>9963.311177</v>
+        <v>9963.3111769999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.767586</v>
+        <v>2.7675860000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.905000</v>
+        <v>961.90499999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.391800</v>
+        <v>-80.391800000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>9973.767308</v>
+        <v>9973.7673080000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.770491</v>
+        <v>2.7704909999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.965000</v>
+        <v>966.96500000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.879900</v>
+        <v>-79.879900000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>9984.313773</v>
+        <v>9984.3137729999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.773420</v>
+        <v>2.7734200000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.893000</v>
+        <v>974.89300000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.723500</v>
+        <v>-87.723500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>9995.255982</v>
+        <v>9995.2559820000006</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.776460</v>
+        <v>2.7764600000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.095000</v>
+        <v>984.09500000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.751000</v>
+        <v>-102.751</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>10006.799871</v>
+        <v>10006.799870999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.779667</v>
+        <v>2.7796669999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.527000</v>
+        <v>995.52700000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.310000</v>
+        <v>-124.31</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>10017.387474</v>
+        <v>10017.387473999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.782608</v>
+        <v>2.7826080000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.160000</v>
+        <v>1005.16</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.053000</v>
+        <v>-143.053</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>10028.405604</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.785668</v>
+        <v>2.7856679999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.420000</v>
+        <v>1050.42</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.898000</v>
+        <v>-227.898</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>10039.447044</v>
@@ -6572,255 +6988,255 @@
         <v>2.788735</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.640000</v>
+        <v>1129.6400000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.237000</v>
+        <v>-364.23700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>10049.755765</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.791599</v>
+        <v>2.7915990000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.522000</v>
+        <v>-575.52200000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>10061.114808</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.794754</v>
+        <v>2.7947540000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.640000</v>
+        <v>1408.64</v>
       </c>
       <c r="BV25" s="1">
-        <v>-801.149000</v>
+        <v>-801.149</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>10072.205817</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.797835</v>
+        <v>2.7978350000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.120000</v>
+        <v>1571.12</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1037.370000</v>
+        <v>-1037.3699999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>10085.430151</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.801508</v>
+        <v>2.8015080000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1982.710000</v>
+        <v>1982.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1586.740000</v>
+        <v>-1586.74</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>9912.476668</v>
+        <v>9912.4766679999993</v>
       </c>
       <c r="B26" s="1">
         <v>2.753466</v>
       </c>
       <c r="C26" s="1">
-        <v>902.326000</v>
+        <v>902.32600000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.168000</v>
+        <v>-194.16800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>9922.998798</v>
+        <v>9922.9987980000005</v>
       </c>
       <c r="G26" s="1">
         <v>2.756389</v>
       </c>
       <c r="H26" s="1">
-        <v>918.558000</v>
+        <v>918.55799999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.043000</v>
+        <v>-165.04300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>9933.032866</v>
+        <v>9933.0328659999996</v>
       </c>
       <c r="L26" s="1">
-        <v>2.759176</v>
+        <v>2.7591760000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>941.395000</v>
+        <v>941.39499999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.856000</v>
+        <v>-118.85599999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>9943.287651</v>
+        <v>9943.2876510000006</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.762024</v>
+        <v>2.7620239999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>948.221000</v>
+        <v>948.221</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.637000</v>
+        <v>-103.637</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>9953.407526</v>
+        <v>9953.4075260000009</v>
       </c>
       <c r="V26" s="1">
-        <v>2.764835</v>
+        <v>2.7648350000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>954.837000</v>
+        <v>954.83699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.691500</v>
+        <v>-89.691500000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>9963.656402</v>
+        <v>9963.6564020000005</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.767682</v>
+        <v>2.7676820000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.890000</v>
+        <v>961.89</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.199200</v>
+        <v>-80.199200000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>9974.110074</v>
+        <v>9974.1100740000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.770586</v>
+        <v>2.7705860000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.982000</v>
+        <v>966.98199999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.893200</v>
+        <v>-79.893199999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>9985.007186</v>
+        <v>9985.0071860000007</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.773613</v>
+        <v>2.7736130000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.905000</v>
+        <v>974.90499999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.752300</v>
+        <v>-87.752300000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>9995.984607</v>
+        <v>9995.9846070000003</v>
       </c>
       <c r="AP26" s="1">
         <v>2.776662</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.096000</v>
+        <v>984.096</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.744000</v>
+        <v>-102.744</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>10007.179807</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.779772</v>
+        <v>2.7797719999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.530000</v>
+        <v>995.53</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.300000</v>
+        <v>-124.3</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>10017.758701</v>
+        <v>10017.758701000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.782711</v>
+        <v>2.7827109999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.170000</v>
+        <v>1005.17</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.055000</v>
+        <v>-143.05500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>10028.783060</v>
+        <v>10028.78306</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.785773</v>
+        <v>2.7857729999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.430000</v>
+        <v>1050.43</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.885000</v>
+        <v>-227.88499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>10040.132516</v>
@@ -6829,75 +7245,76 @@
         <v>2.788926</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>10050.464677</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.791796</v>
+        <v>2.7917960000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.487000</v>
+        <v>-575.48699999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>10061.242777</v>
+        <v>10061.242776999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.794790</v>
+        <v>2.7947899999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.830000</v>
+        <v>1408.83</v>
       </c>
       <c r="BV26" s="1">
-        <v>-801.237000</v>
+        <v>-801.23699999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>10072.631385</v>
+        <v>10072.631385000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.797953</v>
+        <v>2.7979530000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.260000</v>
+        <v>1571.26</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1037.370000</v>
+        <v>-1037.3699999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>10085.967356</v>
+        <v>10085.967355999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.801658</v>
+        <v>2.8016580000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1983.890000</v>
+        <v>1983.89</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1588.540000</v>
+        <v>-1588.54</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>